--- a/conf/resources/video-game-relief-template.xlsx
+++ b/conf/resources/video-game-relief-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP042118873/Creative Industries/Creatives Reform 2022/IT Project/Stencils/Existing reliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_B481E02EB3382B835443344F6140845EA2962600" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B893754F-CD63-489A-B133-3BC9DE236585}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_B481E02EB3382B835443344F6140845EA2962600" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A30FED02-8FA3-47E3-AE66-58B52349D6E8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,9 +1238,6 @@
   </cellStyles>
   <dxfs count="44">
     <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1336,7 +1333,6 @@
       <protection locked="1" hidden="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1350,18 +1346,7 @@
       <protection locked="1" hidden="1"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1382,6 +1367,21 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1587,7 +1587,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Television Tax Relief Stencil"/>
@@ -1622,21 +1622,21 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:I53" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK/EEA Core Expenditure" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK/EEA Core Expenditure" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Table2[Total Non UK/EEA Core Expenditure])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Expenditure paid to a Subcontractor" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Expenditure paid to a Subcontractor" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table2[Expenditure paid to a Subcontractor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table2[[Apportionment basis ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1914,21 +1914,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="5" customWidth="1"/>
     <col min="2" max="3" width="16" style="5" customWidth="1"/>
     <col min="4" max="4" width="28" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="5" width="26.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="44"/>
       <c r="B1" s="45"/>
       <c r="C1" s="46" t="s">
@@ -1946,7 +1946,7 @@
       <c r="M1" s="47"/>
       <c r="N1" s="48"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="49"/>
       <c r="B2" s="40" t="s">
         <v>1</v>
@@ -1966,7 +1966,7 @@
       <c r="M2" s="29"/>
       <c r="N2" s="50"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="40" t="s">
         <v>3</v>
@@ -1986,7 +1986,7 @@
       <c r="M3" s="29"/>
       <c r="N3" s="50"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="51"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2002,7 +2002,7 @@
       <c r="M4" s="39"/>
       <c r="N4" s="52"/>
     </row>
-    <row r="5" spans="1:14" ht="15.6">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="M5" s="39"/>
       <c r="N5" s="52"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="M6" s="39"/>
       <c r="N6" s="52"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="M7" s="39"/>
       <c r="N7" s="52"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>8</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="M8" s="39"/>
       <c r="N8" s="52"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -2090,7 +2090,7 @@
       <c r="M9" s="39"/>
       <c r="N9" s="52"/>
     </row>
-    <row r="10" spans="1:14" ht="15.6">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>9</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="M10" s="39"/>
       <c r="N10" s="52"/>
     </row>
-    <row r="11" spans="1:14" ht="15.6">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="M11" s="39"/>
       <c r="N11" s="52"/>
     </row>
-    <row r="12" spans="1:14" ht="15.6">
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="M12" s="39"/>
       <c r="N12" s="52"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="61"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
@@ -2160,7 +2160,7 @@
       <c r="M13" s="53"/>
       <c r="N13" s="54"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
@@ -2183,21 +2183,21 @@
   </sheetPr>
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68"/>
       <c r="B2" s="69"/>
       <c r="C2" s="6" t="s">
@@ -2211,7 +2211,7 @@
       <c r="I2" s="84"/>
       <c r="J2" s="70"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68"/>
       <c r="B3" s="69"/>
       <c r="C3" s="6" t="s">
@@ -2225,7 +2225,7 @@
       <c r="I3" s="84"/>
       <c r="J3" s="70"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="69"/>
       <c r="C4" s="6" t="s">
@@ -2239,7 +2239,7 @@
       <c r="I4" s="84"/>
       <c r="J4" s="70"/>
     </row>
-    <row r="5" spans="1:10" ht="4.5" customHeight="1">
+    <row r="5" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="68"/>
@@ -2251,7 +2251,7 @@
       <c r="I5" s="68"/>
       <c r="J5" s="70"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68"/>
       <c r="B6" s="69"/>
       <c r="C6" s="68" t="s">
@@ -2275,7 +2275,7 @@
       <c r="I6" s="68"/>
       <c r="J6" s="70"/>
     </row>
-    <row r="7" spans="1:10" ht="4.5" customHeight="1">
+    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="68"/>
       <c r="B7" s="69"/>
       <c r="C7" s="68"/>
@@ -2287,7 +2287,7 @@
       <c r="I7" s="68"/>
       <c r="J7" s="70"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
       <c r="B8" s="71" t="s">
         <v>22</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="J8" s="70"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>26</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="I9" s="74"/>
       <c r="J9" s="70"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="85"/>
       <c r="B10" s="73" t="s">
         <v>29</v>
@@ -2341,7 +2341,7 @@
       <c r="I10" s="74"/>
       <c r="J10" s="70"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85"/>
       <c r="B11" s="73" t="s">
         <v>31</v>
@@ -2357,7 +2357,7 @@
       <c r="I11" s="74"/>
       <c r="J11" s="70"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85"/>
       <c r="B12" s="73" t="s">
         <v>33</v>
@@ -2385,7 +2385,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="70"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
       <c r="B13" s="73" t="s">
         <v>35</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="J13" s="70"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
       <c r="B14" s="73" t="s">
         <v>38</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85"/>
       <c r="B15" s="73" t="s">
         <v>41</v>
@@ -2479,7 +2479,7 @@
       <c r="I15" s="74"/>
       <c r="J15" s="70"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="85"/>
       <c r="B16" s="73" t="s">
         <v>43</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="J16" s="70"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
       <c r="B17" s="73" t="s">
         <v>46</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="J17" s="70"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
       <c r="B18" s="73" t="s">
         <v>49</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="J18" s="70"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86" t="s">
         <v>52</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="I19" s="74"/>
       <c r="J19" s="70"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
       <c r="B20" s="73" t="s">
         <v>55</v>
@@ -2597,7 +2597,7 @@
       <c r="I20" s="74"/>
       <c r="J20" s="70"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="73" t="s">
         <v>57</v>
@@ -2613,7 +2613,7 @@
       <c r="I21" s="74"/>
       <c r="J21" s="70"/>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
       <c r="B22" s="73" t="s">
         <v>59</v>
@@ -2629,7 +2629,7 @@
       <c r="I22" s="74"/>
       <c r="J22" s="70"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
       <c r="B23" s="73" t="s">
         <v>61</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="J23" s="70"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
       <c r="B24" s="73" t="s">
         <v>64</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="J24" s="70"/>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
       <c r="B25" s="73" t="s">
         <v>67</v>
@@ -2708,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f>MIN(E19,E22)</f>
+        <f t="shared" ref="E25:H25" si="2">MIN(E21,E24)</f>
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f>MIN(F19,F22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <f>MIN(G19,G22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f>MIN(H19,H22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="J25" s="70"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="87"/>
       <c r="B26" s="73" t="s">
         <v>70</v>
@@ -2742,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ref="F26:H26" si="2">E25</f>
+        <f t="shared" ref="F26:H26" si="3">E25</f>
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="70"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="B27" s="73" t="s">
         <v>72</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J27" s="70"/>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="88"/>
       <c r="B28" s="73" t="s">
         <v>75</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="J28" s="70"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="89" t="s">
         <v>78</v>
       </c>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:H29" si="3">E23</f>
+        <f t="shared" ref="E29:H29" si="4">E23</f>
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="74"/>
       <c r="J29" s="70"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
       <c r="B30" s="67" t="s">
         <v>80</v>
@@ -2883,7 +2883,7 @@
       <c r="I30" s="74"/>
       <c r="J30" s="70"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
       <c r="B31" s="67" t="s">
         <v>82</v>
@@ -2900,15 +2900,15 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ref="F31:H31" si="4">F29-F30</f>
+        <f t="shared" ref="F31:H31" si="5">F29-F30</f>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31" s="74" t="s">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="J31" s="70"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="90"/>
       <c r="B32" s="67" t="s">
         <v>85</v>
@@ -2932,7 +2932,7 @@
       <c r="I32" s="74"/>
       <c r="J32" s="70"/>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
       <c r="B33" s="67" t="s">
         <v>87</v>
@@ -2960,7 +2960,7 @@
       <c r="I33" s="74"/>
       <c r="J33" s="70"/>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="67" t="s">
         <v>89</v>
@@ -2973,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:H34" si="5">SUM(E32-E33)</f>
+        <f t="shared" ref="E34:H34" si="6">SUM(E32-E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I34" s="74" t="s">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="J34" s="70"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
       <c r="B35" s="67" t="s">
         <v>92</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" ref="E35:H35" si="6">E31+E34</f>
+        <f t="shared" ref="E35:H35" si="7">E31+E34</f>
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I35" s="74" t="s">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="J35" s="70"/>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
       <c r="B36" s="67" t="s">
         <v>95</v>
@@ -3039,25 +3039,25 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" ref="E36:H36" si="7">E21</f>
+        <f t="shared" ref="E36:H36" si="8">E21</f>
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I36" s="74"/>
       <c r="J36" s="70"/>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
       <c r="B37" s="67" t="s">
         <v>96</v>
@@ -3085,7 +3085,7 @@
       <c r="I37" s="74"/>
       <c r="J37" s="70"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="91"/>
       <c r="B38" s="67" t="s">
         <v>98</v>
@@ -3098,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ref="E38:H38" si="8">E36-E37</f>
+        <f t="shared" ref="E38:H38" si="9">E36-E37</f>
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I38" s="74" t="s">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="J38" s="70"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="81" t="s">
         <v>101</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="J39" s="70"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="82"/>
       <c r="B40" s="67" t="s">
         <v>105</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J40" s="70"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="82"/>
       <c r="B41" s="67" t="s">
         <v>108</v>
@@ -3189,17 +3189,17 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:H41" si="9">F41+F43</f>
+        <f t="shared" ref="G41:H41" si="10">F41+F43</f>
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="70"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="82"/>
       <c r="B42" s="67" t="s">
         <v>110</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="J42" s="70"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="82"/>
       <c r="B43" s="67" t="s">
         <v>113</v>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="J43" s="70"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="83"/>
       <c r="B44" s="67" t="s">
         <v>116</v>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="J44" s="70"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="77"/>
       <c r="B45" s="78"/>
       <c r="C45" s="77"/>
@@ -3294,7 +3294,7 @@
       <c r="H45" s="77"/>
       <c r="I45" s="77"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="77"/>
       <c r="B46" s="39" t="s">
         <v>119</v>
@@ -3309,7 +3309,7 @@
       <c r="H46" s="77"/>
       <c r="I46" s="77"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="77"/>
       <c r="B47" s="79"/>
       <c r="C47" s="77"/>
@@ -3320,7 +3320,7 @@
       <c r="H47" s="77"/>
       <c r="I47" s="77"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="77"/>
       <c r="B48" s="79"/>
       <c r="C48" s="77"/>
@@ -3332,7 +3332,7 @@
       <c r="I48" s="77"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jX3/1xMDYPqgGKtZHU6rYo8k8rvnmJLxJVyr/TvqK3qcrJCWdhd0LwROhVrs1rKabuQ7TaE96Zo7H4F7OrQEjA==" saltValue="HFX+8MIec1noORRKvlMaVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V8123691+PdMLxIFkIDvTSbSBE0nIrzNx5iJm/W+wHzmavseI58Lxvbi1ImSIcv/aUNTZpUngV+rf26Wp8fi5g==" saltValue="ZBbxjL79mNrl+/Kz2SAeUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="D2:I2"/>
@@ -3452,21 +3452,21 @@
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="48.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1">
+    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10">
         <f>SUM(D53,C53)</f>
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="34" t="s">
@@ -3489,7 +3489,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="29" t="s">
         <v>1</v>
@@ -3504,7 +3504,7 @@
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="29" t="s">
         <v>3</v>
@@ -3517,7 +3517,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" ht="21" customHeight="1">
+    <row r="5" spans="1:9" s="33" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>123</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="33" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:9" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>126</v>
       </c>
@@ -3572,297 +3572,297 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="10"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="10"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="10"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B17" s="10"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="10"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="10"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="10"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="10"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>146</v>
       </c>
       <c r="B22" s="10"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B23" s="10"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B24" s="10"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="10"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="10"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="10"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="10"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="28.9">
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>149</v>
       </c>
       <c r="B30" s="10"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B31" s="10"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="10"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B33" s="10"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>151</v>
       </c>
       <c r="B34" s="10"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B35" s="10"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B36" s="10"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B37" s="10"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>155</v>
       </c>
       <c r="B38" s="10"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B39" s="10"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>157</v>
       </c>
       <c r="B40" s="10"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B41" s="10"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="10"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="10"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="10"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" ht="28.9">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B45" s="10"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B46" s="10"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B47" s="10"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B48" s="10"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B49" s="10"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>164</v>
       </c>
       <c r="B50" s="10"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>165</v>
       </c>
       <c r="B51" s="10"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="10"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9" s="33" customFormat="1">
+    <row r="53" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>166</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>167</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="E54" s="28"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" s="33" customFormat="1">
+    <row r="55" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>166</v>
       </c>
@@ -3938,27 +3938,27 @@
       </c>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="31"/>
     </row>
   </sheetData>
@@ -3995,31 +3995,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7058508a-d375-4a1e-a567-7dd1bee321db">
-      <UserInfo>
-        <DisplayName>Chauhan, Priya (WMBC Assets, Incentives and Reliefs(AIR))</DisplayName>
-        <AccountId>149</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="196d710fa02d7b8454006001c59ff208">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dd5f73807ecc01be09f0551dd16e5ff" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4fb86a6bd64274b76f239f5430f3f160">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e5356646ac113cdb6f7e4fb15d9e89" ns2:_="" ns3:_="">
     <xsd:import namespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
     <xsd:import namespace="7058508a-d375-4a1e-a567-7dd1bee321db"/>
     <xsd:element name="properties">
@@ -4035,6 +4012,11 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4070,6 +4052,31 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4202,14 +4209,69 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7058508a-d375-4a1e-a567-7dd1bee321db">
+      <UserInfo>
+        <DisplayName>Chauhan, Priya (WMBC Assets, Incentives and Reliefs(AIR))</DisplayName>
+        <AccountId>149</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{352E45A7-2F4A-4D99-91C0-C8C73770AF67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F299416D-7862-428C-98C6-4FA15E4C0578}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E8AA76-5183-47B2-88F2-534C0D4FF5D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E8AA76-5183-47B2-88F2-534C0D4FF5D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE797CBE-7DC5-421B-8A2A-A3A716CCB8FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{352E45A7-2F4A-4D99-91C0-C8C73770AF67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>